--- a/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/tables/faithfulness_grouped_means.xlsx
+++ b/part_3_cohere/analysis/Round_2_dense_analysis_specter_embed/tables/faithfulness_grouped_means.xlsx
@@ -463,13 +463,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>3.285714285714286</v>
+        <v>3.128571428571429</v>
       </c>
       <c r="D2" t="n">
-        <v>3.157142857142857</v>
+        <v>2.985714285714286</v>
       </c>
       <c r="E2" t="n">
-        <v>3.685714285714286</v>
+        <v>3.600000000000001</v>
       </c>
     </row>
   </sheetData>
